--- a/data/pca/factorExposure/factorExposure_2009-10-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.009859952252560934</v>
+        <v>-0.01686072547399956</v>
       </c>
       <c r="C2">
-        <v>-0.002290058276842484</v>
+        <v>-0.000887398504803139</v>
       </c>
       <c r="D2">
-        <v>0.004997930563706182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008802168959979581</v>
+      </c>
+      <c r="E2">
+        <v>-0.001668158421575753</v>
+      </c>
+      <c r="F2">
+        <v>0.01205391881675838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1080172098063269</v>
+        <v>-0.09354628294898044</v>
       </c>
       <c r="C4">
-        <v>-0.01524451804894063</v>
+        <v>-0.01436026689352678</v>
       </c>
       <c r="D4">
-        <v>0.06324611839924466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08410918213346305</v>
+      </c>
+      <c r="E4">
+        <v>-0.02868204972667532</v>
+      </c>
+      <c r="F4">
+        <v>-0.0319628011245434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1435276771799854</v>
+        <v>-0.1587713161928584</v>
       </c>
       <c r="C6">
-        <v>-0.02076080411653815</v>
+        <v>-0.02612834589411746</v>
       </c>
       <c r="D6">
-        <v>-0.02004363588905743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0227251750342421</v>
+      </c>
+      <c r="E6">
+        <v>-0.01031463957424901</v>
+      </c>
+      <c r="F6">
+        <v>-0.04418985426529039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07188233937367693</v>
+        <v>-0.06359952008156304</v>
       </c>
       <c r="C7">
-        <v>0.0003148580310864426</v>
+        <v>0.00174548529151955</v>
       </c>
       <c r="D7">
-        <v>0.03711532915939668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05308628252603652</v>
+      </c>
+      <c r="E7">
+        <v>-0.01200108978087898</v>
+      </c>
+      <c r="F7">
+        <v>-0.047609807539812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06117658756818246</v>
+        <v>-0.05719657810791846</v>
       </c>
       <c r="C8">
-        <v>0.01243686591636111</v>
+        <v>0.01351818712895764</v>
       </c>
       <c r="D8">
-        <v>0.0133246489127353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03275463275633077</v>
+      </c>
+      <c r="E8">
+        <v>-0.01794952512020234</v>
+      </c>
+      <c r="F8">
+        <v>0.02737877363542296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08201748979187569</v>
+        <v>-0.07087815105561854</v>
       </c>
       <c r="C9">
-        <v>-0.01335530073300712</v>
+        <v>-0.01021209360119086</v>
       </c>
       <c r="D9">
-        <v>0.06691450473013678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0867457084363852</v>
+      </c>
+      <c r="E9">
+        <v>-0.02360004018799629</v>
+      </c>
+      <c r="F9">
+        <v>-0.04746170926402251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07567501166311942</v>
+        <v>-0.09269926878545383</v>
       </c>
       <c r="C10">
-        <v>-0.008696391794269238</v>
+        <v>-0.02104704362427342</v>
       </c>
       <c r="D10">
-        <v>-0.1595765018281866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1657263091518993</v>
+      </c>
+      <c r="E10">
+        <v>0.03307761382234322</v>
+      </c>
+      <c r="F10">
+        <v>0.05514311985309009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09195984000837058</v>
+        <v>-0.08792229469428539</v>
       </c>
       <c r="C11">
-        <v>-0.01335445896060624</v>
+        <v>-0.01009406948724606</v>
       </c>
       <c r="D11">
-        <v>0.09460261794563128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1172708276697799</v>
+      </c>
+      <c r="E11">
+        <v>-0.04646436827886363</v>
+      </c>
+      <c r="F11">
+        <v>-0.02295222780846424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09933974112658607</v>
+        <v>-0.09196278446536026</v>
       </c>
       <c r="C12">
-        <v>-0.01178835110488734</v>
+        <v>-0.007484172189917676</v>
       </c>
       <c r="D12">
-        <v>0.09544914484414548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321480626145982</v>
+      </c>
+      <c r="E12">
+        <v>-0.04678171793816543</v>
+      </c>
+      <c r="F12">
+        <v>-0.02888005647345285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04100613297538246</v>
+        <v>-0.04171089066904946</v>
       </c>
       <c r="C13">
-        <v>-0.004573196887788619</v>
+        <v>-0.002447454115078409</v>
       </c>
       <c r="D13">
-        <v>0.03783637324534601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0535449827270937</v>
+      </c>
+      <c r="E13">
+        <v>0.00465506487518873</v>
+      </c>
+      <c r="F13">
+        <v>-0.0005451589016537785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0198982861542197</v>
+        <v>-0.0241149288821911</v>
       </c>
       <c r="C14">
-        <v>-0.01522684413934276</v>
+        <v>-0.01380847031779337</v>
       </c>
       <c r="D14">
-        <v>0.02559167866484088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03264777662269255</v>
+      </c>
+      <c r="E14">
+        <v>-0.0188214665867323</v>
+      </c>
+      <c r="F14">
+        <v>-0.01278830059868297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03747972484245753</v>
+        <v>-0.03263040660170758</v>
       </c>
       <c r="C15">
-        <v>-0.006052520268828379</v>
+        <v>-0.004527456499065118</v>
       </c>
       <c r="D15">
-        <v>0.0231869092883495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04475778322126853</v>
+      </c>
+      <c r="E15">
+        <v>-0.005887530821874479</v>
+      </c>
+      <c r="F15">
+        <v>-0.02433889817759095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07755681259480783</v>
+        <v>-0.07420838911807214</v>
       </c>
       <c r="C16">
-        <v>-0.00560976897949108</v>
+        <v>-0.0007457343210303812</v>
       </c>
       <c r="D16">
-        <v>0.09319763852854714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278311110618264</v>
+      </c>
+      <c r="E16">
+        <v>-0.06133936730823204</v>
+      </c>
+      <c r="F16">
+        <v>-0.0269563716854054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0006217630195861327</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001767164143435325</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001128784815430597</v>
+      </c>
+      <c r="E17">
+        <v>-0.0007688605355774604</v>
+      </c>
+      <c r="F17">
+        <v>0.001109791581859374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.002874979583096913</v>
+        <v>-0.03594774871903578</v>
       </c>
       <c r="C18">
-        <v>0.0004703189017478878</v>
+        <v>0.003080394217817758</v>
       </c>
       <c r="D18">
-        <v>0.002182113917120342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01616084209449054</v>
+      </c>
+      <c r="E18">
+        <v>0.009276372927268298</v>
+      </c>
+      <c r="F18">
+        <v>0.009017528853927499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06366726794419897</v>
+        <v>-0.06153764128070863</v>
       </c>
       <c r="C20">
-        <v>-0.004192702007947728</v>
+        <v>0.0001320319999764246</v>
       </c>
       <c r="D20">
-        <v>0.03893902862395769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07795604556700916</v>
+      </c>
+      <c r="E20">
+        <v>-0.05665914692583932</v>
+      </c>
+      <c r="F20">
+        <v>-0.02486494319738089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04394253896368764</v>
+        <v>-0.04065894162138255</v>
       </c>
       <c r="C21">
-        <v>-0.0088106901607972</v>
+        <v>-0.006342719482967238</v>
       </c>
       <c r="D21">
-        <v>0.01263065749837152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03790372464187254</v>
+      </c>
+      <c r="E21">
+        <v>0.001857330887648819</v>
+      </c>
+      <c r="F21">
+        <v>0.02567815536907812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03005297272926601</v>
+        <v>-0.04340915663487269</v>
       </c>
       <c r="C22">
-        <v>3.189726515618726e-05</v>
+        <v>-0.0004296168577823097</v>
       </c>
       <c r="D22">
-        <v>-0.02203537242053153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006580071023417462</v>
+      </c>
+      <c r="E22">
+        <v>-0.0347932149326326</v>
+      </c>
+      <c r="F22">
+        <v>0.0374579889147472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03000580090036923</v>
+        <v>-0.04338510840705886</v>
       </c>
       <c r="C23">
-        <v>3.83333364674477e-05</v>
+        <v>-0.0004212853245317985</v>
       </c>
       <c r="D23">
-        <v>-0.02202480923735201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006595530450240749</v>
+      </c>
+      <c r="E23">
+        <v>-0.03497597693372884</v>
+      </c>
+      <c r="F23">
+        <v>0.03742138203320393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08422413789368187</v>
+        <v>-0.0798158649991598</v>
       </c>
       <c r="C24">
-        <v>-0.005354923415026447</v>
+        <v>-0.001355905810641023</v>
       </c>
       <c r="D24">
-        <v>0.1022055554812292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1216750698519389</v>
+      </c>
+      <c r="E24">
+        <v>-0.04925302989034349</v>
+      </c>
+      <c r="F24">
+        <v>-0.02752304190176871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0915371572929197</v>
+        <v>-0.08520795519159592</v>
       </c>
       <c r="C25">
-        <v>-0.007471959931706863</v>
+        <v>-0.004153922487708299</v>
       </c>
       <c r="D25">
-        <v>0.09163097859601618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094660339547018</v>
+      </c>
+      <c r="E25">
+        <v>-0.03256948173608339</v>
+      </c>
+      <c r="F25">
+        <v>-0.02751142166401958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05650127623612052</v>
+        <v>-0.05882067141744104</v>
       </c>
       <c r="C26">
-        <v>-0.0169705241644553</v>
+        <v>-0.01423998511816382</v>
       </c>
       <c r="D26">
-        <v>0.0140056971570667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04122473947490846</v>
+      </c>
+      <c r="E26">
+        <v>-0.02877207102483213</v>
+      </c>
+      <c r="F26">
+        <v>0.006779255044381813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1361548020537406</v>
+        <v>-0.1426230760346455</v>
       </c>
       <c r="C28">
-        <v>-0.002468335168441551</v>
+        <v>-0.02203818861640124</v>
       </c>
       <c r="D28">
-        <v>-0.2705425704776964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2610201400892678</v>
+      </c>
+      <c r="E28">
+        <v>0.06719816753161933</v>
+      </c>
+      <c r="F28">
+        <v>-0.007576894386479591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02245362845050618</v>
+        <v>-0.02855614354783224</v>
       </c>
       <c r="C29">
-        <v>-0.0097535144892996</v>
+        <v>-0.008638129311225602</v>
       </c>
       <c r="D29">
-        <v>0.01851713564454146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03095427754132612</v>
+      </c>
+      <c r="E29">
+        <v>-0.01390533741764456</v>
+      </c>
+      <c r="F29">
+        <v>0.01360791134327751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08914266200691873</v>
+        <v>-0.05947668350912295</v>
       </c>
       <c r="C30">
-        <v>-0.003297171483801858</v>
+        <v>-0.002499772558523589</v>
       </c>
       <c r="D30">
-        <v>0.07076518262123327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08981392305540881</v>
+      </c>
+      <c r="E30">
+        <v>-0.01618005216735135</v>
+      </c>
+      <c r="F30">
+        <v>-0.07838033752994258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04540024160777448</v>
+        <v>-0.05091823497460213</v>
       </c>
       <c r="C31">
-        <v>-0.0150996589366095</v>
+        <v>-0.01529773845371173</v>
       </c>
       <c r="D31">
-        <v>0.01854070632965661</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02508363429065865</v>
+      </c>
+      <c r="E31">
+        <v>-0.02860652830630777</v>
+      </c>
+      <c r="F31">
+        <v>0.001295608663783269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05182054645547782</v>
+        <v>-0.05144749105734898</v>
       </c>
       <c r="C32">
-        <v>0.0002967731660925949</v>
+        <v>0.001883844489143762</v>
       </c>
       <c r="D32">
-        <v>0.01822128837477486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03523297660437452</v>
+      </c>
+      <c r="E32">
+        <v>-0.03345664478365443</v>
+      </c>
+      <c r="F32">
+        <v>-0.003510837711533855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09804446941019851</v>
+        <v>-0.0894349350292305</v>
       </c>
       <c r="C33">
-        <v>-0.009042666723123255</v>
+        <v>-0.006602016300828076</v>
       </c>
       <c r="D33">
-        <v>0.06727381428197898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1012261959884028</v>
+      </c>
+      <c r="E33">
+        <v>-0.04395908734961822</v>
+      </c>
+      <c r="F33">
+        <v>-0.03720800736502906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07878483236165239</v>
+        <v>-0.06777584518677003</v>
       </c>
       <c r="C34">
-        <v>-0.01209723635683736</v>
+        <v>-0.009852115007677563</v>
       </c>
       <c r="D34">
-        <v>0.09069308053135536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1095009034933074</v>
+      </c>
+      <c r="E34">
+        <v>-0.0348724909232393</v>
+      </c>
+      <c r="F34">
+        <v>-0.03352156742482149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02526748632811884</v>
+        <v>-0.02485078584099933</v>
       </c>
       <c r="C35">
-        <v>-0.001321477044003382</v>
+        <v>-0.002450552607209896</v>
       </c>
       <c r="D35">
-        <v>0.002453219329177657</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01114621811223982</v>
+      </c>
+      <c r="E35">
+        <v>-0.01176476650095101</v>
+      </c>
+      <c r="F35">
+        <v>-0.0005939519031674663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01811824157960395</v>
+        <v>-0.0276099871978774</v>
       </c>
       <c r="C36">
-        <v>-0.008960332356741105</v>
+        <v>-0.006779637357258265</v>
       </c>
       <c r="D36">
-        <v>0.03047481957009949</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03988651831264427</v>
+      </c>
+      <c r="E36">
+        <v>-0.01660584926631692</v>
+      </c>
+      <c r="F36">
+        <v>-0.01526726075639925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0008146211396059205</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006041217112824291</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002497957517637174</v>
+      </c>
+      <c r="E37">
+        <v>0.0008270437139323573</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006144892394613622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0001874368343678592</v>
+        <v>7.80040484657896e-06</v>
       </c>
       <c r="C38">
-        <v>5.969420148945108e-06</v>
+        <v>8.299123687594055e-05</v>
       </c>
       <c r="D38">
-        <v>0.001613758571260029</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0009132990986307056</v>
+      </c>
+      <c r="E38">
+        <v>8.183128020628089e-05</v>
+      </c>
+      <c r="F38">
+        <v>-0.0003912426356612566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1203840024275754</v>
+        <v>-0.1041080091854006</v>
       </c>
       <c r="C39">
-        <v>-0.01962949350846246</v>
+        <v>-0.01526127056360817</v>
       </c>
       <c r="D39">
-        <v>0.1398474089834565</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1551795393968761</v>
+      </c>
+      <c r="E39">
+        <v>-0.06011286895805029</v>
+      </c>
+      <c r="F39">
+        <v>-0.02992776868586447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03206888885309874</v>
+        <v>-0.04108880752547479</v>
       </c>
       <c r="C40">
-        <v>-0.007850062205655277</v>
+        <v>-0.006964693995607915</v>
       </c>
       <c r="D40">
-        <v>-0.01685656156080552</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03012058916327585</v>
+      </c>
+      <c r="E40">
+        <v>-0.002035506628873314</v>
+      </c>
+      <c r="F40">
+        <v>0.01577427929563814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02437372449620604</v>
+        <v>-0.02829702652231454</v>
       </c>
       <c r="C41">
-        <v>-0.006565162762648134</v>
+        <v>-0.006943484713372248</v>
       </c>
       <c r="D41">
-        <v>0.0002391246223109053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0103643846846384</v>
+      </c>
+      <c r="E41">
+        <v>-0.01216282337599981</v>
+      </c>
+      <c r="F41">
+        <v>0.005947085673048467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03276777423421279</v>
+        <v>-0.04077654274173132</v>
       </c>
       <c r="C43">
-        <v>-0.008051493866222195</v>
+        <v>-0.006995506234738182</v>
       </c>
       <c r="D43">
-        <v>0.006112629119625582</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01882868088381158</v>
+      </c>
+      <c r="E43">
+        <v>-0.02527006785653734</v>
+      </c>
+      <c r="F43">
+        <v>0.01237749988302618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09804688696882533</v>
+        <v>-0.07938941799592486</v>
       </c>
       <c r="C44">
-        <v>-0.02143171398937581</v>
+        <v>-0.01907127028194442</v>
       </c>
       <c r="D44">
-        <v>0.07443936541783158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09787338237048834</v>
+      </c>
+      <c r="E44">
+        <v>-0.06208408720885238</v>
+      </c>
+      <c r="F44">
+        <v>-0.1543307229100438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01348228518641995</v>
+        <v>-0.0234706962653548</v>
       </c>
       <c r="C46">
-        <v>-0.004212230396098065</v>
+        <v>-0.003332918570368793</v>
       </c>
       <c r="D46">
-        <v>-0.001327490326341718</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01278971485704304</v>
+      </c>
+      <c r="E46">
+        <v>-0.02632904721063037</v>
+      </c>
+      <c r="F46">
+        <v>0.006754952658945929</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04049775152565786</v>
+        <v>-0.05226639514800181</v>
       </c>
       <c r="C47">
-        <v>-0.003472742029818991</v>
+        <v>-0.003302697705917034</v>
       </c>
       <c r="D47">
-        <v>-0.008664466858921908</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01392543739772074</v>
+      </c>
+      <c r="E47">
+        <v>-0.02352183464468772</v>
+      </c>
+      <c r="F47">
+        <v>0.03174528053799822</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04687553640174179</v>
+        <v>-0.05025897819315003</v>
       </c>
       <c r="C48">
-        <v>-0.003996442106253785</v>
+        <v>-0.002029402271601449</v>
       </c>
       <c r="D48">
-        <v>0.03824195788605459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0505031234388844</v>
+      </c>
+      <c r="E48">
+        <v>0.004694025532796378</v>
+      </c>
+      <c r="F48">
+        <v>-0.009916748294365986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.205671881950414</v>
+        <v>-0.2002862606986967</v>
       </c>
       <c r="C49">
-        <v>-0.01039410837652313</v>
+        <v>-0.0185727686918794</v>
       </c>
       <c r="D49">
-        <v>0.01059576624711712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006350282219890126</v>
+      </c>
+      <c r="E49">
+        <v>-0.03103665992447264</v>
+      </c>
+      <c r="F49">
+        <v>-0.03841679289183669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04832376679487433</v>
+        <v>-0.05131631020519006</v>
       </c>
       <c r="C50">
-        <v>-0.01054489661981424</v>
+        <v>-0.01106430083417036</v>
       </c>
       <c r="D50">
-        <v>0.01498893045823529</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02471484186739314</v>
+      </c>
+      <c r="E50">
+        <v>-0.03007084413531215</v>
+      </c>
+      <c r="F50">
+        <v>-0.009648217304254726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1599936987247374</v>
+        <v>-0.1473598785052788</v>
       </c>
       <c r="C52">
-        <v>-0.01059468378841214</v>
+        <v>-0.01668348045738155</v>
       </c>
       <c r="D52">
-        <v>0.05393791428459358</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04304357277966735</v>
+      </c>
+      <c r="E52">
+        <v>-0.01940312563320884</v>
+      </c>
+      <c r="F52">
+        <v>-0.04363105273914795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.174125313644505</v>
+        <v>-0.1711020860212281</v>
       </c>
       <c r="C53">
-        <v>-0.009610981496436832</v>
+        <v>-0.01932964001250911</v>
       </c>
       <c r="D53">
-        <v>0.02197297114230489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005603510875320263</v>
+      </c>
+      <c r="E53">
+        <v>-0.02825464410165432</v>
+      </c>
+      <c r="F53">
+        <v>-0.07417843195964133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01863284794456557</v>
+        <v>-0.02106012471777419</v>
       </c>
       <c r="C54">
-        <v>-0.01182116365296424</v>
+        <v>-0.01134714916016587</v>
       </c>
       <c r="D54">
-        <v>0.02209204025528374</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03418748823790271</v>
+      </c>
+      <c r="E54">
+        <v>-0.02163302238997635</v>
+      </c>
+      <c r="F54">
+        <v>0.005666360906392939</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1140986751015246</v>
+        <v>-0.1142070581550683</v>
       </c>
       <c r="C55">
-        <v>-0.01059939048261548</v>
+        <v>-0.01712664559095239</v>
       </c>
       <c r="D55">
-        <v>0.01137162086344158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008194645459628931</v>
+      </c>
+      <c r="E55">
+        <v>-0.02372880404931306</v>
+      </c>
+      <c r="F55">
+        <v>-0.04725080435825582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1777032670766536</v>
+        <v>-0.1768235944102134</v>
       </c>
       <c r="C56">
-        <v>-0.008010839582394683</v>
+        <v>-0.01725353579272608</v>
       </c>
       <c r="D56">
-        <v>0.002520505102145862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00131314944989431</v>
+      </c>
+      <c r="E56">
+        <v>-0.03314754132321637</v>
+      </c>
+      <c r="F56">
+        <v>-0.0523711667155383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.02905431609512093</v>
+        <v>-0.04479460783376509</v>
       </c>
       <c r="C58">
-        <v>-0.007141413108778846</v>
+        <v>0.0005201962138653265</v>
       </c>
       <c r="D58">
-        <v>0.05293027467849611</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07167945974709661</v>
+      </c>
+      <c r="E58">
+        <v>-0.03177021447083506</v>
+      </c>
+      <c r="F58">
+        <v>0.03859948891669669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.160863739957698</v>
+        <v>-0.1679977483565184</v>
       </c>
       <c r="C59">
-        <v>-0.002353246790310422</v>
+        <v>-0.02206859581690588</v>
       </c>
       <c r="D59">
-        <v>-0.2340025846988652</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2170695217772425</v>
+      </c>
+      <c r="E59">
+        <v>0.0460139379946688</v>
+      </c>
+      <c r="F59">
+        <v>0.03592069865248719</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2509913677583945</v>
+        <v>-0.231600069388004</v>
       </c>
       <c r="C60">
-        <v>0.01295254212178155</v>
+        <v>0.00274816676759012</v>
       </c>
       <c r="D60">
-        <v>0.06147311470501025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04188576001784898</v>
+      </c>
+      <c r="E60">
+        <v>-0.00928337179182394</v>
+      </c>
+      <c r="F60">
+        <v>0.004102952065868438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0975424586274532</v>
+        <v>-0.080221516527472</v>
       </c>
       <c r="C61">
-        <v>-0.01329695351909939</v>
+        <v>-0.01103243172082236</v>
       </c>
       <c r="D61">
-        <v>0.09410369062798814</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178633927507962</v>
+      </c>
+      <c r="E61">
+        <v>-0.03971147710864933</v>
+      </c>
+      <c r="F61">
+        <v>-0.013012228308611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.172510842246506</v>
+        <v>-0.1696647034277886</v>
       </c>
       <c r="C62">
-        <v>-0.01236170491776013</v>
+        <v>-0.02026359029200782</v>
       </c>
       <c r="D62">
-        <v>0.006750300382267293</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006262371425790885</v>
+      </c>
+      <c r="E62">
+        <v>-0.0335891333302621</v>
+      </c>
+      <c r="F62">
+        <v>-0.03633978741689977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04812652908132339</v>
+        <v>-0.04581378011357741</v>
       </c>
       <c r="C63">
-        <v>-0.004275916499147289</v>
+        <v>-0.00168490802782513</v>
       </c>
       <c r="D63">
-        <v>0.03770972245163806</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05864959650681194</v>
+      </c>
+      <c r="E63">
+        <v>-0.02307692481974223</v>
+      </c>
+      <c r="F63">
+        <v>-0.002766269959390246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1037064676359492</v>
+        <v>-0.1101499316780271</v>
       </c>
       <c r="C64">
-        <v>-0.01036506006534707</v>
+        <v>-0.01112446565237703</v>
       </c>
       <c r="D64">
-        <v>0.0211340192561628</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04396427013456679</v>
+      </c>
+      <c r="E64">
+        <v>-0.02202075401992753</v>
+      </c>
+      <c r="F64">
+        <v>-0.02606736823932484</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1337007265876484</v>
+        <v>-0.1498286572195678</v>
       </c>
       <c r="C65">
-        <v>-0.02725348162520981</v>
+        <v>-0.03363172713388364</v>
       </c>
       <c r="D65">
-        <v>-0.0207763385021614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04314308153327527</v>
+      </c>
+      <c r="E65">
+        <v>-0.005756452381482395</v>
+      </c>
+      <c r="F65">
+        <v>-0.03979603030662483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1487488415296236</v>
+        <v>-0.1235858509458099</v>
       </c>
       <c r="C66">
-        <v>-0.01562745064723941</v>
+        <v>-0.01315324344577537</v>
       </c>
       <c r="D66">
-        <v>0.1309680565912405</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1430452211644763</v>
+      </c>
+      <c r="E66">
+        <v>-0.06581403728298657</v>
+      </c>
+      <c r="F66">
+        <v>-0.03391230785104878</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05580900362755348</v>
+        <v>-0.0578099044455857</v>
       </c>
       <c r="C67">
-        <v>-0.003163042428797141</v>
+        <v>-0.002717395769508851</v>
       </c>
       <c r="D67">
-        <v>0.04393356162515469</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05612148007534031</v>
+      </c>
+      <c r="E67">
+        <v>-0.01657344263941646</v>
+      </c>
+      <c r="F67">
+        <v>0.03106409762207293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1105241761445885</v>
+        <v>-0.1165425408091606</v>
       </c>
       <c r="C68">
-        <v>-0.0133077485341608</v>
+        <v>-0.03259430809401177</v>
       </c>
       <c r="D68">
-        <v>-0.2506683885436328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2604980410825626</v>
+      </c>
+      <c r="E68">
+        <v>0.08685370435028365</v>
+      </c>
+      <c r="F68">
+        <v>-0.003923540353224455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0359627066247728</v>
+        <v>-0.03942275373668607</v>
       </c>
       <c r="C69">
-        <v>2.758095484323638e-05</v>
+        <v>-0.001194363687310432</v>
       </c>
       <c r="D69">
-        <v>0.006670746939320698</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007931304348594207</v>
+      </c>
+      <c r="E69">
+        <v>-0.02355923608202262</v>
+      </c>
+      <c r="F69">
+        <v>-0.0008249227734134992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04664541078207805</v>
+        <v>-0.06694649640580619</v>
       </c>
       <c r="C70">
-        <v>0.02446892384804849</v>
+        <v>0.02750593682440029</v>
       </c>
       <c r="D70">
-        <v>-0.04126641173800499</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02433819014807288</v>
+      </c>
+      <c r="E70">
+        <v>0.03399530145673556</v>
+      </c>
+      <c r="F70">
+        <v>0.1817865389291577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.124298598739382</v>
+        <v>-0.1364928547100914</v>
       </c>
       <c r="C71">
-        <v>-0.01717714367888183</v>
+        <v>-0.03694580098624969</v>
       </c>
       <c r="D71">
-        <v>-0.2682525269248906</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2722572710468966</v>
+      </c>
+      <c r="E71">
+        <v>0.09742837972830889</v>
+      </c>
+      <c r="F71">
+        <v>-0.009130170208917989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1363756816221769</v>
+        <v>-0.142681761151854</v>
       </c>
       <c r="C72">
-        <v>-0.02117413371111751</v>
+        <v>-0.02681056738943294</v>
       </c>
       <c r="D72">
-        <v>-0.002375449165758685</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002556743889129851</v>
+      </c>
+      <c r="E72">
+        <v>-0.03658115508343422</v>
+      </c>
+      <c r="F72">
+        <v>-0.03193683492044677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2019807522777947</v>
+        <v>-0.2035451130926264</v>
       </c>
       <c r="C73">
-        <v>-0.004567203204794332</v>
+        <v>-0.01245562912362449</v>
       </c>
       <c r="D73">
-        <v>0.008351428440715344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01771801251084213</v>
+      </c>
+      <c r="E73">
+        <v>-0.06322575756711372</v>
+      </c>
+      <c r="F73">
+        <v>-0.03865504701118369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09925687242258865</v>
+        <v>-0.09489508604607565</v>
       </c>
       <c r="C74">
-        <v>-0.006925227619298586</v>
+        <v>-0.01329110767219529</v>
       </c>
       <c r="D74">
-        <v>0.0253632836598701</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0170541610577556</v>
+      </c>
+      <c r="E74">
+        <v>-0.04367306172171239</v>
+      </c>
+      <c r="F74">
+        <v>-0.05788853271740561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.135894375912837</v>
+        <v>-0.1272921465517214</v>
       </c>
       <c r="C75">
-        <v>-0.02214324403467556</v>
+        <v>-0.02789818881557874</v>
       </c>
       <c r="D75">
-        <v>0.02761357175969422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0308712660052987</v>
+      </c>
+      <c r="E75">
+        <v>-0.05821004104000836</v>
+      </c>
+      <c r="F75">
+        <v>-0.02273293041508158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07103189863443998</v>
+        <v>-0.08751611197082537</v>
       </c>
       <c r="C77">
-        <v>-0.01335443342525591</v>
+        <v>-0.007950563877030149</v>
       </c>
       <c r="D77">
-        <v>0.1013262301014627</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1114224852107776</v>
+      </c>
+      <c r="E77">
+        <v>-0.03785579087181058</v>
+      </c>
+      <c r="F77">
+        <v>-0.03604319156272422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1011963398811228</v>
+        <v>-0.1000231314450548</v>
       </c>
       <c r="C78">
-        <v>-0.04205172565651555</v>
+        <v>-0.03917540454916135</v>
       </c>
       <c r="D78">
-        <v>0.08910124817184338</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1139011993650785</v>
+      </c>
+      <c r="E78">
+        <v>-0.0741749793372235</v>
+      </c>
+      <c r="F78">
+        <v>-0.04712959864221197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1649091886822394</v>
+        <v>-0.1639450365666373</v>
       </c>
       <c r="C79">
-        <v>-0.01569506042043019</v>
+        <v>-0.02267312860938427</v>
       </c>
       <c r="D79">
-        <v>-2.971437392438644e-05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01430225292117159</v>
+      </c>
+      <c r="E79">
+        <v>-0.04584533039197956</v>
+      </c>
+      <c r="F79">
+        <v>-0.01225096118122704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08913739044251798</v>
+        <v>-0.08241696213333809</v>
       </c>
       <c r="C80">
-        <v>0.001233285566412031</v>
+        <v>0.001128130589403162</v>
       </c>
       <c r="D80">
-        <v>0.05223428684609822</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05589078519581027</v>
+      </c>
+      <c r="E80">
+        <v>-0.03591086442833557</v>
+      </c>
+      <c r="F80">
+        <v>0.02237578934534489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1217661179146975</v>
+        <v>-0.119571515514155</v>
       </c>
       <c r="C81">
-        <v>-0.02553122026346301</v>
+        <v>-0.03179982231722239</v>
       </c>
       <c r="D81">
-        <v>0.04038601135747472</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01537530314566606</v>
+      </c>
+      <c r="E81">
+        <v>-0.05707875703691581</v>
+      </c>
+      <c r="F81">
+        <v>-0.0184757190552681</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1731193024892498</v>
+        <v>-0.165946882647304</v>
       </c>
       <c r="C82">
-        <v>-0.01495342361527795</v>
+        <v>-0.0247456070077626</v>
       </c>
       <c r="D82">
-        <v>0.0332466271281423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00382745683405289</v>
+      </c>
+      <c r="E82">
+        <v>-0.02606637267413658</v>
+      </c>
+      <c r="F82">
+        <v>-0.08201307033115166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06733011888452212</v>
+        <v>-0.05869523904509594</v>
       </c>
       <c r="C83">
-        <v>-0.004281059411157564</v>
+        <v>-0.002581543865566594</v>
       </c>
       <c r="D83">
-        <v>0.03044992051529287</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05111919082387983</v>
+      </c>
+      <c r="E83">
+        <v>-0.003070722146240575</v>
+      </c>
+      <c r="F83">
+        <v>0.03058574075826334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06762738845376187</v>
+        <v>-0.05910070591792416</v>
       </c>
       <c r="C84">
-        <v>-0.01225927924402395</v>
+        <v>-0.01095390904299969</v>
       </c>
       <c r="D84">
-        <v>0.05537839811380874</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06378953140445143</v>
+      </c>
+      <c r="E84">
+        <v>-0.00725060254342908</v>
+      </c>
+      <c r="F84">
+        <v>-0.005372656113319865</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1357906390446804</v>
+        <v>-0.1355216898854993</v>
       </c>
       <c r="C85">
-        <v>-0.02237443416183362</v>
+        <v>-0.02790656549161438</v>
       </c>
       <c r="D85">
-        <v>0.01902145048952382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009837869717973936</v>
+      </c>
+      <c r="E85">
+        <v>-0.03631754156885553</v>
+      </c>
+      <c r="F85">
+        <v>-0.04791165280436182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.06759419476151704</v>
+        <v>-0.0948133586674859</v>
       </c>
       <c r="C86">
-        <v>-0.0009532702626548448</v>
+        <v>0.005516656091136229</v>
       </c>
       <c r="D86">
-        <v>-0.06505692155961687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0407798118641512</v>
+      </c>
+      <c r="E86">
+        <v>-0.2295959726631169</v>
+      </c>
+      <c r="F86">
+        <v>0.9050585003855021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1154078982384279</v>
+        <v>-0.09446890361801144</v>
       </c>
       <c r="C87">
-        <v>-0.02265312681923575</v>
+        <v>-0.01901760202048612</v>
       </c>
       <c r="D87">
-        <v>0.06235995800127573</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09409703773261235</v>
+      </c>
+      <c r="E87">
+        <v>0.05317943827220615</v>
+      </c>
+      <c r="F87">
+        <v>-0.04655558952990878</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05407591412129312</v>
+        <v>-0.06092860510700236</v>
       </c>
       <c r="C88">
-        <v>-0.004184168080864263</v>
+        <v>-0.002168716322916406</v>
       </c>
       <c r="D88">
-        <v>0.04162143764899279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04949947773655329</v>
+      </c>
+      <c r="E88">
+        <v>-0.02402508762533974</v>
+      </c>
+      <c r="F88">
+        <v>-0.01402435751915308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1261652497363921</v>
+        <v>-0.1307567777461067</v>
       </c>
       <c r="C89">
-        <v>0.004914997089250928</v>
+        <v>-0.01351929949777621</v>
       </c>
       <c r="D89">
-        <v>-0.2768611164075566</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.246945110770913</v>
+      </c>
+      <c r="E89">
+        <v>0.08910158300025024</v>
+      </c>
+      <c r="F89">
+        <v>0.00896759870121205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1298699628953159</v>
+        <v>-0.1512386942423203</v>
       </c>
       <c r="C90">
-        <v>-0.01436539620635873</v>
+        <v>-0.03365287667226346</v>
       </c>
       <c r="D90">
-        <v>-0.2724368471415747</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2701998547569406</v>
+      </c>
+      <c r="E90">
+        <v>0.1129480359099763</v>
+      </c>
+      <c r="F90">
+        <v>0.0080306211929221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1166371456350441</v>
+        <v>-0.1207016699700238</v>
       </c>
       <c r="C91">
-        <v>-0.01203193356300581</v>
+        <v>-0.01951468842800904</v>
       </c>
       <c r="D91">
-        <v>-0.01048421483267999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01452655415839151</v>
+      </c>
+      <c r="E91">
+        <v>-0.05534077045864454</v>
+      </c>
+      <c r="F91">
+        <v>0.000357050411978871</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1431194210660207</v>
+        <v>-0.1485436480670948</v>
       </c>
       <c r="C92">
-        <v>-0.002775742583407749</v>
+        <v>-0.02453811454953993</v>
       </c>
       <c r="D92">
-        <v>-0.3017211240299043</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2916795157676619</v>
+      </c>
+      <c r="E92">
+        <v>0.1015873960631553</v>
+      </c>
+      <c r="F92">
+        <v>0.01324245740678505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1326990892620257</v>
+        <v>-0.1522602168766114</v>
       </c>
       <c r="C93">
-        <v>-0.00975349696656265</v>
+        <v>-0.02886812538956262</v>
       </c>
       <c r="D93">
-        <v>-0.2612735606739434</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2665964063693109</v>
+      </c>
+      <c r="E93">
+        <v>0.07877589339256573</v>
+      </c>
+      <c r="F93">
+        <v>-0.003050807290831447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1349194598912836</v>
+        <v>-0.1281154521585476</v>
       </c>
       <c r="C94">
-        <v>-0.01885930718549048</v>
+        <v>-0.02428673652542215</v>
       </c>
       <c r="D94">
-        <v>0.04580805123326051</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04221414278167505</v>
+      </c>
+      <c r="E94">
+        <v>-0.05712209360156507</v>
+      </c>
+      <c r="F94">
+        <v>-0.03655865056727112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1147914084567689</v>
+        <v>-0.1267724099707321</v>
       </c>
       <c r="C95">
-        <v>-0.007785972613241252</v>
+        <v>-0.00292621325758805</v>
       </c>
       <c r="D95">
-        <v>0.07081868527700656</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09493274749580266</v>
+      </c>
+      <c r="E95">
+        <v>-0.04926479636210689</v>
+      </c>
+      <c r="F95">
+        <v>0.005147648272431123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.06865749429378182</v>
+        <v>-0.1073625491403272</v>
       </c>
       <c r="C96">
-        <v>0.9922816384758963</v>
+        <v>0.9872940190784795</v>
       </c>
       <c r="D96">
-        <v>-0.002659869231279152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05140409600125714</v>
+      </c>
+      <c r="E96">
+        <v>-0.05343522058002981</v>
+      </c>
+      <c r="F96">
+        <v>-0.04229684434140307</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.191341775938353</v>
+        <v>-0.1919804820407721</v>
       </c>
       <c r="C97">
-        <v>0.01532406542305317</v>
+        <v>0.007036854171811846</v>
       </c>
       <c r="D97">
-        <v>-0.03746294598406039</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01878727012184976</v>
+      </c>
+      <c r="E97">
+        <v>-0.02092628966990591</v>
+      </c>
+      <c r="F97">
+        <v>0.09372507473679517</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1985874542467846</v>
+        <v>-0.2060343150966555</v>
       </c>
       <c r="C98">
-        <v>-0.001050772613840092</v>
+        <v>-0.006778367165979027</v>
       </c>
       <c r="D98">
-        <v>-0.01168587990601203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01277643724115239</v>
+      </c>
+      <c r="E98">
+        <v>0.07846996550120047</v>
+      </c>
+      <c r="F98">
+        <v>0.09337659329470985</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05311385886000116</v>
+        <v>-0.05448397371899755</v>
       </c>
       <c r="C99">
-        <v>0.004508299239905122</v>
+        <v>0.00472894310551644</v>
       </c>
       <c r="D99">
-        <v>0.02515891212438416</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04025687965681966</v>
+      </c>
+      <c r="E99">
+        <v>-0.02268056668116903</v>
+      </c>
+      <c r="F99">
+        <v>-0.002111679361954181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1399931648628749</v>
+        <v>-0.1266212874332278</v>
       </c>
       <c r="C100">
-        <v>0.03836947384876874</v>
+        <v>0.05416654204668172</v>
       </c>
       <c r="D100">
-        <v>0.4487535469372523</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3469116438009988</v>
+      </c>
+      <c r="E100">
+        <v>0.8856505212673448</v>
+      </c>
+      <c r="F100">
+        <v>0.1586584145522452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02222716375232441</v>
+        <v>-0.02851857426199457</v>
       </c>
       <c r="C101">
-        <v>-0.009722928210871026</v>
+        <v>-0.00866350016676499</v>
       </c>
       <c r="D101">
-        <v>0.01773361041828238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03055802877916473</v>
+      </c>
+      <c r="E101">
+        <v>-0.01329653701621271</v>
+      </c>
+      <c r="F101">
+        <v>0.01480049678073164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
